--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="user_info - コピー" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1267,19 +1267,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>쵸코빵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>옴니버스</t>
     </r>
   </si>
@@ -1601,6 +1588,10 @@
       </rPr>
       <t>ㅈㅎ</t>
     </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>초코빵</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2211,8 +2202,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2552,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3149,8 +3143,8 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>175</v>
+      <c r="A77" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -3158,7 +3152,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -3166,7 +3160,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -3179,7 +3173,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -3187,7 +3181,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -3203,7 +3197,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -3219,7 +3213,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -3232,7 +3226,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
@@ -3240,7 +3234,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
@@ -3256,7 +3250,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
@@ -3264,7 +3258,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
@@ -3272,7 +3266,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
@@ -3285,7 +3279,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
@@ -3293,7 +3287,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
@@ -3301,7 +3295,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
@@ -3317,7 +3311,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
@@ -3325,7 +3319,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
@@ -3333,7 +3327,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
@@ -3341,7 +3335,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
@@ -3357,7 +3351,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
@@ -3365,7 +3359,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
@@ -3374,5 +3368,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Toast_123</t>
   </si>
   <si>
-    <t>qanswer</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1573,20 +1570,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>토스트</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ㅈㅎ</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -2544,17 +2527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2562,7 +2545,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2570,7 +2553,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2578,7 +2561,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2591,7 +2574,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2599,7 +2582,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2607,7 +2590,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2615,7 +2598,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2623,7 +2606,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2636,7 +2619,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2644,7 +2627,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -2652,7 +2635,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -2660,7 +2643,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2668,7 +2651,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2676,7 +2659,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -2684,7 +2667,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -2692,7 +2675,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2700,7 +2683,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2708,7 +2691,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2716,7 +2699,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2724,7 +2707,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2732,7 +2715,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2740,7 +2723,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2748,7 +2731,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -2756,7 +2739,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2764,7 +2747,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2772,7 +2755,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2780,7 +2763,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2788,7 +2771,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2796,7 +2779,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2804,7 +2787,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2812,7 +2795,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -2825,7 +2808,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2833,7 +2816,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -2841,7 +2824,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -2849,7 +2832,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -2857,7 +2840,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -2865,7 +2848,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -2883,7 +2866,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -2891,7 +2874,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2899,7 +2882,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -2907,7 +2890,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -2915,7 +2898,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -2923,7 +2906,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -2931,7 +2914,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
@@ -2939,7 +2922,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -2947,7 +2930,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -2955,7 +2938,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -2963,7 +2946,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -2971,7 +2954,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -2979,7 +2962,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -2987,7 +2970,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
@@ -3000,7 +2983,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
@@ -3008,7 +2991,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -3016,7 +2999,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -3024,7 +3007,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
@@ -3032,7 +3015,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -3040,7 +3023,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -3048,7 +3031,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
@@ -3056,7 +3039,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -3064,7 +3047,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -3072,7 +3055,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -3080,7 +3063,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -3088,7 +3071,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -3096,7 +3079,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -3104,7 +3087,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -3112,7 +3095,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -3120,7 +3103,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
@@ -3128,7 +3111,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
@@ -3136,7 +3119,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -3144,7 +3127,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -3152,7 +3135,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -3160,7 +3143,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -3173,7 +3156,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -3181,7 +3164,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -3189,7 +3172,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -3197,7 +3180,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -3205,7 +3188,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -3213,7 +3196,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -3226,7 +3209,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
@@ -3234,7 +3217,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
@@ -3242,7 +3225,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
@@ -3250,7 +3233,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
@@ -3258,7 +3241,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
@@ -3266,7 +3249,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
@@ -3279,7 +3262,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
@@ -3287,7 +3270,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
@@ -3295,7 +3278,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
@@ -3303,7 +3286,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
@@ -3311,7 +3294,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
@@ -3319,7 +3302,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
@@ -3327,7 +3310,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
@@ -3335,7 +3318,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
@@ -3343,7 +3326,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
@@ -3351,18 +3334,10 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1575,6 +1575,10 @@
   </si>
   <si>
     <t>초코빵</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>엘렌가든</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2529,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3256,6 +3260,9 @@
       </c>
     </row>
     <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -262,9 +262,6 @@
     <t>whim_pc</t>
   </si>
   <si>
-    <t>TheDeepOne</t>
-  </si>
-  <si>
     <t>kimjun</t>
   </si>
   <si>
@@ -1094,19 +1091,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>뉴비식스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>갓주홍</t>
     </r>
   </si>
@@ -1306,19 +1290,6 @@
       <t>윔</t>
     </r>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>딥원</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1579,6 +1550,10 @@
   </si>
   <si>
     <t>엘렌가든</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>유비식스</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2531,354 +2506,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>105</v>
+      <c r="A2" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2886,90 +2876,90 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>146</v>
+      <c r="A48" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2977,342 +2967,327 @@
         <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>166</v>
+      <c r="A69" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>167</v>
-      </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>170</v>
-      </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>173</v>
-      </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>184</v>
-      </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>185</v>
-      </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>199</v>
+      <c r="A94" t="s">
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3320,34 +3295,29 @@
         <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>197</v>
-      </c>
-      <c r="B104" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B164">
+    <sortCondition ref="A10"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Horangnavi</t>
   </si>
   <si>
-    <t>Toast_123</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1527,20 +1524,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>호랑나비</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>토스트</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -1555,6 +1538,16 @@
   <si>
     <t>유비식스</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JPs-Harurara</t>
+  </si>
+  <si>
+    <t>티버레이크</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tiberlake</t>
   </si>
 </sst>
 </file>
@@ -2506,17 +2499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2524,7 +2517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -2532,7 +2525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -2540,7 +2533,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -2548,7 +2541,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2556,7 +2549,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2564,7 +2557,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -2572,7 +2565,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -2580,7 +2573,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
@@ -2588,7 +2581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2596,7 +2589,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -2604,7 +2597,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2612,7 +2605,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -2620,7 +2613,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2628,7 +2621,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
@@ -2636,7 +2629,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -2644,7 +2637,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -2652,7 +2645,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2660,7 +2653,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -2668,7 +2661,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2676,7 +2669,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -2684,7 +2677,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -2692,7 +2685,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -2700,7 +2693,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2708,7 +2701,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2716,7 +2709,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2724,7 +2717,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -2732,7 +2725,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -2740,7 +2733,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -2748,7 +2741,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -2756,7 +2749,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -2764,7 +2757,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2772,7 +2765,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -2780,7 +2773,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -2788,7 +2781,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2796,7 +2789,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2804,7 +2797,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -2812,7 +2805,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -2820,7 +2813,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -2828,7 +2821,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -2836,7 +2829,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2844,7 +2837,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -2852,7 +2845,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -2860,7 +2853,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2868,7 +2861,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2876,7 +2869,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
         <v>96</v>
@@ -2884,7 +2877,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
@@ -2892,7 +2885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
@@ -2900,7 +2893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2908,7 +2901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
@@ -2916,7 +2909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
@@ -2924,7 +2917,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2932,7 +2925,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -2940,7 +2933,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -2948,7 +2941,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -2956,7 +2949,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -2964,7 +2957,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -2972,7 +2965,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>78</v>
@@ -2980,7 +2973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -2988,7 +2981,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -2996,7 +2989,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
         <v>89</v>
@@ -3004,7 +2997,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
@@ -3012,7 +3005,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -3020,7 +3013,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3028,7 +3021,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
@@ -3036,7 +3029,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
         <v>98</v>
@@ -3044,7 +3037,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3052,7 +3045,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -3060,7 +3053,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
         <v>92</v>
@@ -3073,7 +3066,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
         <v>61</v>
@@ -3081,7 +3074,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
         <v>64</v>
@@ -3094,7 +3087,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
@@ -3102,7 +3095,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
         <v>101</v>
@@ -3119,198 +3112,203 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>180</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="B87" t="s">
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>194</v>
+      <c r="A101" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
         <v>51</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1538,9 +1538,6 @@
   <si>
     <t>유비식스</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>JPs-Harurara</t>
   </si>
   <si>
     <t>티버레이크</t>
@@ -2499,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3112,203 +3109,198 @@
       </c>
     </row>
     <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>177</v>
-      </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>179</v>
+      </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>134</v>
-      </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>137</v>
+      </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>191</v>
-      </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>125</v>
+      <c r="A100" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
-        <v>197</v>
+      <c r="A101" t="s">
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" t="s">
         <v>51</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1545,6 +1545,35 @@
   </si>
   <si>
     <t>Tiberlake</t>
+  </si>
+  <si>
+    <t>달재</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>시아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진수가</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Daljae5524</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Feelingit</t>
+  </si>
+  <si>
+    <t>Ohhoho</t>
+  </si>
+  <si>
+    <t>artheaven</t>
   </si>
 </sst>
 </file>
@@ -2496,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2585,722 +2614,754 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>151</v>
+      <c r="A11" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>150</v>
+      <c r="A30" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>132</v>
+      <c r="A36" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>193</v>
+      <c r="A48" t="s">
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>173</v>
+      <c r="A50" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>108</v>
+      <c r="A52" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>194</v>
+      <c r="A69" t="s">
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>189</v>
+      </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>179</v>
-      </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>156</v>
-      </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>116</v>
-      </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>162</v>
-      </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>196</v>
+      <c r="A100" t="s">
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>148</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" t="s">
         <v>51</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>artheaven</t>
+  </si>
+  <si>
+    <t>ImDomi</t>
   </si>
 </sst>
 </file>
@@ -2525,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3161,207 +3164,212 @@
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>177</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>137</v>
-      </c>
-      <c r="B92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>191</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>125</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>148</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>51</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -121,9 +121,6 @@
     <t>kor_bbom</t>
   </si>
   <si>
-    <t>MnR-YooniKING</t>
-  </si>
-  <si>
     <t>ATAEDIE</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>Macaroon</t>
   </si>
   <si>
-    <t>sumaranPC</t>
-  </si>
-  <si>
     <t>ChocobreaD</t>
   </si>
   <si>
@@ -758,7 +752,215 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>유니킹</t>
+      <t>아태</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테시스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뉴담</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에드랑꼬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라데꾸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>큐폿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>젤리샵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>식순이</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>후비고</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>루팡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>킹수미</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벨거</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사쿨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤권</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>악철</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신형준</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>던지</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -772,215 +974,166 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>아태</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>테시스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>뉴담</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에드랑꼬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>라데꾸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>큐폿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>젤리샵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>식순이</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>후비고</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>루팡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>킹수미</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벨거</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사쿨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>윤권</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>악철</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>신형준</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>던지</t>
+      <t>마사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카톡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하야센</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>알트키</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿠마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>퍼기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신스퀘어</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갓주홍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마그마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차지운</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>록맨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김느루</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>풍신켄</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -994,179 +1147,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>마사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카톡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하야센</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>알트키</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿠마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>퍼기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>신스퀘어</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>갓주홍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마그마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>차지운</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>록맨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>김느루</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>풍신켄</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>이글맨</t>
     </r>
   </si>
@@ -1220,19 +1200,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>마카롱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>슈마란</t>
     </r>
   </si>
   <si>
@@ -1559,10 +1526,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>아하!</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Daljae5524</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1570,13 +1533,32 @@
     <t>Feelingit</t>
   </si>
   <si>
-    <t>Ohhoho</t>
-  </si>
-  <si>
     <t>artheaven</t>
   </si>
   <si>
+    <t>시호</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>쿠밤밤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ImDomi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>도미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Wolfrain26</t>
+  </si>
+  <si>
+    <t>kubambam</t>
+  </si>
+  <si>
+    <t>SF5-GoZeT</t>
   </si>
 </sst>
 </file>
@@ -2530,15 +2512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2546,31 +2528,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2578,7 +2560,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2586,31 +2568,31 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2618,23 +2600,23 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2642,15 +2624,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2658,31 +2640,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2690,7 +2672,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2698,7 +2680,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2706,31 +2688,31 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2738,15 +2720,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2754,47 +2736,47 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>190</v>
+      <c r="A29" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2802,7 +2784,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2810,231 +2792,231 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>201</v>
+      <c r="A36" t="s">
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>187</v>
+      <c r="A49" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>200</v>
+      <c r="A50" t="s">
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>161</v>
+      <c r="A51" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>193</v>
+      <c r="A52" t="s">
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>182</v>
+      <c r="A57" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -3042,39 +3024,39 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -3082,23 +3064,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3106,7 +3088,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
@@ -3114,57 +3096,60 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" t="s">
-        <v>92</v>
+        <v>203</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>157</v>
-      </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>130</v>
-      </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>188</v>
+      </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3174,23 +3159,23 @@
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3200,71 +3185,68 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="B91" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>191</v>
-      </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3273,61 +3255,61 @@
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>112</v>
-      </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -3335,7 +3317,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -3343,15 +3325,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -3359,18 +3341,18 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1559,6 +1559,28 @@
   </si>
   <si>
     <t>SF5-GoZeT</t>
+  </si>
+  <si>
+    <t>암핏</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>armpitplay</t>
+  </si>
+  <si>
+    <t>John-Wick</t>
+  </si>
+  <si>
+    <t>제쿠</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>한나</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hanna_KR</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2510,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2815,543 +2837,567 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>130</v>
+      <c r="A38" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>169</v>
+      <c r="A53" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>201</v>
+      <c r="A57" t="s">
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>133</v>
+      <c r="A59" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>131</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="B78" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>166</v>
-      </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>137</v>
-      </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>114</v>
-      </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>123</v>
-      </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>192</v>
+      <c r="A105" t="s">
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>170</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>145</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3361,6 +3407,6 @@
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-10395" yWindow="390" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="user_info - コピー" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>yangyan79</t>
   </si>
   <si>
-    <t>kr_fightingman</t>
-  </si>
-  <si>
     <t>akavata</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>0ovwwvo0</t>
   </si>
   <si>
-    <t>DarkSonic1</t>
-  </si>
-  <si>
     <t>BBONGAL</t>
   </si>
   <si>
@@ -1425,19 +1419,6 @@
       <t>준화</t>
     </r>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다크소닉</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1580,6 +1561,17 @@
   </si>
   <si>
     <t>hanna_KR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>린보찡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>rinbo7-pc</t>
+  </si>
+  <si>
+    <t>kr_solohappy</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2535,14 +2527,14 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2550,7 +2542,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -2558,7 +2550,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2566,7 +2558,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2574,7 +2566,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2582,7 +2574,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2590,7 +2582,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2598,7 +2590,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -2606,79 +2598,79 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>113</v>
+      <c r="A10" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>194</v>
+      <c r="A11" t="s">
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>174</v>
+      <c r="A17" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -2686,7 +2678,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2694,7 +2686,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2702,7 +2694,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2710,7 +2702,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -2718,7 +2710,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2726,15 +2718,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2742,7 +2734,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -2750,7 +2742,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2758,31 +2750,31 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
         <v>195</v>
-      </c>
-      <c r="B29" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -2790,7 +2782,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -2798,7 +2790,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2806,7 +2798,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2814,7 +2806,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2822,7 +2814,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -2830,7 +2822,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2838,15 +2830,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2854,7 +2846,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2862,7 +2854,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -2870,7 +2862,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2878,15 +2870,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2894,7 +2886,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
         <v>69</v>
@@ -2902,7 +2894,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2910,7 +2902,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -2918,15 +2910,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2934,23 +2926,23 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
         <v>196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -2958,7 +2950,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
         <v>74</v>
@@ -2966,7 +2958,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2974,7 +2966,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
@@ -2982,15 +2974,15 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2998,23 +2990,23 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
@@ -3022,7 +3014,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
@@ -3030,7 +3022,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -3038,7 +3030,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -3046,7 +3038,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
         <v>76</v>
@@ -3054,7 +3046,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -3062,7 +3054,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3070,23 +3062,23 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
         <v>58</v>
@@ -3094,7 +3086,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3102,23 +3094,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3126,7 +3118,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
         <v>33</v>
@@ -3134,18 +3126,18 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3155,7 +3147,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
@@ -3163,7 +3155,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>63</v>
@@ -3176,7 +3168,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
@@ -3184,18 +3176,18 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3210,7 +3202,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
         <v>55</v>
@@ -3218,7 +3210,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
         <v>82</v>
@@ -3231,15 +3223,15 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>85</v>
+        <v>173</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
         <v>39</v>
@@ -3247,7 +3239,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
         <v>73</v>
@@ -3255,7 +3247,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
         <v>59</v>
@@ -3263,7 +3255,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
@@ -3276,7 +3268,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -3284,10 +3276,10 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3302,7 +3294,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
         <v>68</v>
@@ -3310,7 +3302,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
         <v>42</v>
@@ -3318,7 +3310,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -3326,7 +3318,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
         <v>66</v>
@@ -3334,7 +3326,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -3342,12 +3334,12 @@
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
         <v>61</v>
@@ -3355,7 +3347,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
@@ -3363,7 +3355,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -3371,15 +3363,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -3387,7 +3379,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
         <v>79</v>
@@ -3395,7 +3387,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
         <v>50</v>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -181,9 +181,6 @@
     <t>isamix</t>
   </si>
   <si>
-    <t>KaKaoTalk</t>
-  </si>
-  <si>
     <t>EXTRAUSER</t>
   </si>
   <si>
@@ -969,19 +966,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>마사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카톡</t>
     </r>
   </si>
   <si>
@@ -1507,10 +1491,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Daljae5524</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Feelingit</t>
   </si>
   <si>
@@ -1572,6 +1552,16 @@
   </si>
   <si>
     <t>kr_solohappy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Dalbong5524</t>
+  </si>
+  <si>
+    <t>hyotax</t>
+  </si>
+  <si>
+    <t>sparkstar</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2524,17 +2514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2542,15 +2532,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2558,7 +2548,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2566,7 +2556,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2574,7 +2564,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2582,23 +2572,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2606,15 +2596,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -2622,7 +2612,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2630,15 +2620,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2646,7 +2636,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -2654,31 +2644,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2686,7 +2676,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2694,7 +2684,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2702,15 +2692,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2718,15 +2708,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2734,7 +2724,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -2742,7 +2732,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2750,31 +2740,31 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
         <v>192</v>
-      </c>
-      <c r="B29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -2782,7 +2772,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -2790,7 +2780,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2798,7 +2788,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2806,7 +2796,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2814,7 +2804,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -2822,7 +2812,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2830,15 +2820,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2846,7 +2836,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2854,15 +2844,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2870,15 +2860,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2886,15 +2876,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2902,7 +2892,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -2910,15 +2900,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2926,39 +2916,39 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
         <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2966,23 +2956,23 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2990,23 +2980,23 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
@@ -3014,7 +3004,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
@@ -3022,31 +3012,31 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -3054,7 +3044,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3062,31 +3052,31 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3094,23 +3084,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3118,7 +3108,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
         <v>33</v>
@@ -3126,49 +3116,49 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
@@ -3176,44 +3166,41 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>148</v>
-      </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3223,15 +3210,15 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
         <v>39</v>
@@ -3239,26 +3226,26 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3268,7 +3255,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -3276,10 +3263,10 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3294,15 +3281,15 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
         <v>42</v>
@@ -3310,7 +3297,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -3318,15 +3305,15 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -3334,62 +3321,67 @@
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>119</v>
-      </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>116</v>
+      <c r="A109" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s">
         <v>50</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1479,10 +1479,6 @@
     <t>Tiberlake</t>
   </si>
   <si>
-    <t>달재</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>시아</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1553,9 +1549,6 @@
   <si>
     <t>kr_solohappy</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Dalbong5524</t>
   </si>
   <si>
     <t>hyotax</t>
@@ -2514,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2595,793 +2588,785 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>189</v>
+      <c r="A10" t="s">
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>170</v>
+      <c r="A16" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>207</v>
+      <c r="A17" t="s">
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>181</v>
+      <c r="A28" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>194</v>
+      <c r="A30" t="s">
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>121</v>
+      <c r="A37" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>201</v>
+      <c r="A38" t="s">
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>99</v>
+      <c r="A47" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>204</v>
+      <c r="A48" t="s">
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>179</v>
+      <c r="A50" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>191</v>
+      <c r="A51" t="s">
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>154</v>
+      <c r="A52" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>184</v>
+      <c r="A53" t="s">
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>174</v>
+      <c r="A58" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>195</v>
+      <c r="A59" t="s">
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
+      <c r="A74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>152</v>
-      </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>125</v>
+      <c r="A81" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>205</v>
+      <c r="A82" t="s">
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>183</v>
-      </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>169</v>
-      </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="B88" t="s">
-        <v>34</v>
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>160</v>
-      </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>182</v>
-      </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>151</v>
-      </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>120</v>
+      <c r="A108" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>187</v>
+      <c r="A109" t="s">
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" t="s">
         <v>50</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -292,9 +292,6 @@
     <t>youbaek</t>
   </si>
   <si>
-    <t>0ovwwvo0</t>
-  </si>
-  <si>
     <t>BBONGAL</t>
   </si>
   <si>
@@ -1389,20 +1386,6 @@
       </rPr>
       <t>유백</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>준화</t>
-    </r>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <r>
@@ -1555,6 +1538,16 @@
   </si>
   <si>
     <t>sparkstar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>esw310</t>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>카톡</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2507,17 +2500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2525,7 +2518,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -2533,7 +2526,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2541,7 +2534,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2549,7 +2542,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2557,7 +2550,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2565,7 +2558,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2573,7 +2566,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -2581,7 +2574,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2589,7 +2582,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -2597,7 +2590,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2605,7 +2598,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -2613,7 +2606,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2621,7 +2614,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -2629,7 +2622,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -2637,15 +2630,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -2653,7 +2646,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2661,7 +2654,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -2669,7 +2662,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2677,7 +2670,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -2685,7 +2678,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -2693,7 +2686,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -2701,7 +2694,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2709,7 +2702,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -2717,7 +2710,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2725,31 +2718,31 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -2757,7 +2750,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -2765,7 +2758,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -2773,7 +2766,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2781,7 +2774,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2789,7 +2782,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -2797,7 +2790,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -2805,15 +2798,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2821,7 +2814,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -2829,7 +2822,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
@@ -2837,7 +2830,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2845,7 +2838,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
@@ -2853,7 +2846,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2861,7 +2854,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
@@ -2869,7 +2862,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -2877,7 +2870,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -2885,234 +2878,232 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>179</v>
+      <c r="A49" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>190</v>
+      <c r="A50" t="s">
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>154</v>
+      <c r="A51" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>184</v>
+      <c r="A52" t="s">
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>174</v>
+      <c r="A57" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>194</v>
+      <c r="A58" t="s">
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
+      <c r="A73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3122,7 +3113,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
         <v>59</v>
@@ -3130,7 +3121,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
@@ -3143,7 +3134,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
@@ -3151,23 +3142,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3181,192 +3172,200 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>169</v>
+      <c r="A86" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B86" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="B87" t="s">
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" t="s">
-        <v>39</v>
+        <v>170</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" t="s">
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" t="s">
-        <v>199</v>
-      </c>
-    </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>151</v>
-      </c>
       <c r="B104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="B105" t="s">
-        <v>210</v>
-      </c>
-    </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>118</v>
-      </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>115</v>
+      <c r="A109" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
         <v>50</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1549,6 +1549,20 @@
   <si>
     <t>카톡</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ohhoho</t>
+  </si>
+  <si>
+    <t>히즈미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lovlotus</t>
   </si>
 </sst>
 </file>
@@ -2500,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2781,591 +2795,606 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>142</v>
+      <c r="A35" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>153</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>173</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>171</v>
+      <c r="A66" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>127</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>151</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>124</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>181</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>168</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="B88" t="s">
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" t="s">
-        <v>39</v>
+        <v>170</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>148</v>
-      </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>180</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="B97" t="s">
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="B98" t="s">
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>165</v>
+      <c r="A111" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>141</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>50</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -193,9 +193,6 @@
     <t>MCjintai_go</t>
   </si>
   <si>
-    <t>FergieTV</t>
-  </si>
-  <si>
     <t>Sinsquare</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Hand_of_Nod</t>
   </si>
   <si>
-    <t>DOOSOONI</t>
-  </si>
-  <si>
     <t>whim_pc</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>youbaek</t>
   </si>
   <si>
-    <t>BBONGAL</t>
-  </si>
-  <si>
     <t>nanahistory</t>
   </si>
   <si>
@@ -1017,19 +1008,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>퍼기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>신스퀘어</t>
     </r>
   </si>
@@ -1213,19 +1191,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>캐미조아</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>윔</t>
     </r>
     <phoneticPr fontId="18"/>
@@ -1385,19 +1350,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>유백</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>나미</t>
     </r>
   </si>
   <si>
@@ -1476,10 +1428,6 @@
     <t>artheaven</t>
   </si>
   <si>
-    <t>시호</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>쿠밤밤</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1492,9 +1440,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Wolfrain26</t>
-  </si>
-  <si>
     <t>kubambam</t>
   </si>
   <si>
@@ -1515,14 +1460,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>한나</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>hanna_KR</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>린보찡</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1544,25 +1481,39 @@
     <t>esw310</t>
   </si>
   <si>
-    <t>KaKaoTalk</t>
-  </si>
-  <si>
-    <t>카톡</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아하!</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ohhoho</t>
-  </si>
-  <si>
     <t>히즈미</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>lovlotus</t>
+  </si>
+  <si>
+    <t>나노조던</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NanoJordan</t>
+  </si>
+  <si>
+    <t>아침</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hanna_KR</t>
+  </si>
+  <si>
+    <t>지옥불반도</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JIOKBULBANDO</t>
+  </si>
+  <si>
+    <t>가일스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pekoshin</t>
   </si>
 </sst>
 </file>
@@ -2514,17 +2465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2532,15 +2483,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2548,7 +2499,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2556,7 +2507,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2564,7 +2515,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2572,191 +2523,191 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>158</v>
+      <c r="A8" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>204</v>
+      <c r="A16" t="s">
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>152</v>
+      <c r="A17" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>187</v>
+      <c r="A28" t="s">
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -2764,7 +2715,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -2772,7 +2723,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -2780,31 +2731,31 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>128</v>
+      <c r="A34" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -2812,7 +2763,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2820,15 +2771,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2836,7 +2787,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2844,15 +2795,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2860,15 +2811,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2876,15 +2827,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2892,7 +2843,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -2900,15 +2851,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2916,55 +2867,55 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>153</v>
+      <c r="A51" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>182</v>
+      <c r="A52" t="s">
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>99</v>
+      <c r="A53" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2972,23 +2923,23 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
@@ -2996,7 +2947,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
@@ -3004,15 +2955,15 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -3020,15 +2971,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -3036,7 +2987,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3044,31 +2995,31 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>57</v>
@@ -3076,7 +3027,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3084,317 +3035,293 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
+      <c r="A74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>124</v>
-      </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>181</v>
-      </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>82</v>
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>211</v>
+      <c r="A87" t="s">
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>168</v>
+      <c r="A88" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>206</v>
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>159</v>
-      </c>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>130</v>
-      </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>185</v>
+      <c r="A111" t="s">
+        <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>141</v>
-      </c>
-      <c r="B114" t="s">
         <v>50</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -91,9 +91,6 @@
     <t>KwonJoonHo</t>
   </si>
   <si>
-    <t>Thrall_77</t>
-  </si>
-  <si>
     <t>almaloss</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>insanity_player</t>
   </si>
   <si>
-    <t>yangyan79</t>
-  </si>
-  <si>
     <t>akavata</t>
   </si>
   <si>
@@ -614,19 +608,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>쓰랄</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>알마</t>
     </r>
   </si>
@@ -1232,19 +1213,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>까망</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>류마스터</t>
     </r>
   </si>
   <si>
@@ -1514,6 +1482,24 @@
   </si>
   <si>
     <t>pekoshin</t>
+  </si>
+  <si>
+    <t>스린이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>js_sick</t>
+  </si>
+  <si>
+    <t>켄모노</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KenNoMo</t>
+  </si>
+  <si>
+    <t>오렌지페코</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2475,7 +2461,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2483,31 +2469,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2515,7 +2501,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2523,31 +2509,31 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2555,15 +2541,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2571,15 +2557,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2587,143 +2573,143 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>164</v>
+      <c r="A16" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>194</v>
+      <c r="A17" t="s">
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>110</v>
+      <c r="A27" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -2731,7 +2717,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2739,87 +2725,87 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2827,23 +2813,23 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -2851,55 +2837,55 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2907,403 +2893,406 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>99</v>
+      <c r="A56" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>185</v>
+      <c r="A58" t="s">
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>135</v>
+      <c r="A59" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>200</v>
+      <c r="A66" t="s">
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>167</v>
+      <c r="A67" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>166</v>
+      <c r="A68" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>186</v>
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>177</v>
+      <c r="A75" t="s">
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="B76" t="s">
-        <v>55</v>
+      <c r="A76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>147</v>
+      <c r="A77" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>175</v>
-      </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>163</v>
-      </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>129</v>
-      </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B88" t="s">
-        <v>201</v>
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>145</v>
+      <c r="A90" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>142</v>
+      </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>174</v>
-      </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>152</v>
-      </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>146</v>
-      </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>143</v>
+      </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>114</v>
-      </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -3311,18 +3300,18 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -37,9 +37,6 @@
     <t>KR_WrestlingMan</t>
   </si>
   <si>
-    <t>realukyo</t>
-  </si>
-  <si>
     <t>MnR-DongDong2</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>NCH0522</t>
   </si>
   <si>
-    <t>TlaTlaGo</t>
-  </si>
-  <si>
     <t>1st-BY</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>ACE_JY</t>
   </si>
   <si>
-    <t>lee30111</t>
-  </si>
-  <si>
     <t>CaptainUrien</t>
   </si>
   <si>
@@ -376,19 +367,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>코메디언</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>동동</t>
     </r>
   </si>
@@ -532,19 +510,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>심심해</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>바이</t>
     </r>
     <r>
@@ -1254,19 +1219,6 @@
       <t>에이스</t>
     </r>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿠마</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1491,14 +1443,33 @@
     <t>js_sick</t>
   </si>
   <si>
-    <t>켄모노</t>
+    <t>오렌지페코</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>KenNoMo</t>
-  </si>
-  <si>
-    <t>오렌지페코</t>
+    <t>헐랭이손</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>dhschenk</t>
+  </si>
+  <si>
+    <t>쿠마</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lee30111</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kanie_SDM</t>
+  </si>
+  <si>
+    <t>realukyo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>승무</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2453,15 +2424,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2469,306 +2440,306 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>104</v>
+      <c r="A10" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>190</v>
+      <c r="A16" t="s">
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>145</v>
+      <c r="A17" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>206</v>
+      <c r="A27" t="s">
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>169</v>
+      <c r="A28" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>177</v>
+      <c r="A29" t="s">
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>129</v>
+      <c r="A30" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>122</v>
+      <c r="A35" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>186</v>
+      <c r="A38" t="s">
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>120</v>
+      <c r="A39" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2776,542 +2747,539 @@
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>128</v>
+      <c r="A49" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>202</v>
+      <c r="A50" t="s">
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>146</v>
+      <c r="A52" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>172</v>
+      <c r="A53" t="s">
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>94</v>
+      <c r="A54" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>208</v>
+      <c r="A56" t="s">
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>97</v>
+      <c r="A57" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>164</v>
+      <c r="A58" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>181</v>
+      <c r="A59" t="s">
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>130</v>
+      <c r="A66" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>210</v>
+      <c r="A68" t="s">
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" t="s">
-        <v>32</v>
+      <c r="A75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>144</v>
-      </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>171</v>
-      </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>147</v>
+      <c r="A102" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>143</v>
-      </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>112</v>
-      </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>175</v>
+      <c r="A108" t="s">
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
+      <c r="A109" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -256,9 +256,6 @@
     <t>ACE_JY</t>
   </si>
   <si>
-    <t>CaptainUrien</t>
-  </si>
-  <si>
     <t>ellengarden</t>
   </si>
   <si>
@@ -1230,19 +1227,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>캡틴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>발닦고자라</t>
     </r>
   </si>
@@ -1471,6 +1455,54 @@
   <si>
     <t>승무</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sfktj-karin</t>
+  </si>
+  <si>
+    <t>기파랑</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>니동이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ohhoho</t>
+  </si>
+  <si>
+    <t>자드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KOR_ZARD</t>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>KickBomb</t>
+  </si>
+  <si>
+    <t>thealto</t>
+  </si>
+  <si>
+    <t>쓰랄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thrall_77</t>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
   </si>
 </sst>
 </file>
@@ -2422,17 +2454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2440,7 +2475,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -2448,7 +2483,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2456,7 +2491,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -2464,7 +2499,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2472,814 +2507,869 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>143</v>
+      <c r="A7" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-    </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>146</v>
+      <c r="A9" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>100</v>
+      <c r="A11" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
+      <c r="A12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12">
+        <v>20171115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>184</v>
+      <c r="A17" t="s">
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A19" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>200</v>
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>132</v>
+      <c r="A32" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>194</v>
+      <c r="A35" t="s">
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>131</v>
+      <c r="A37" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>150</v>
+      <c r="A42" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>183</v>
+      <c r="A49" t="s">
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
         <v>172</v>
       </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>118</v>
+      <c r="A60" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>148</v>
+      <c r="A61" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>190</v>
+      <c r="A66" t="s">
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>202</v>
+      <c r="A67" t="s">
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>157</v>
+      <c r="A69" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>136</v>
+      <c r="A70" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>155</v>
-      </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>186</v>
+      <c r="A88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>121</v>
-      </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>137</v>
-      </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
+        <v>155</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>119</v>
+      <c r="A95" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>144</v>
-      </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>142</v>
-      </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>169</v>
+      <c r="A109" t="s">
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>152</v>
-      </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="B114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -40,9 +40,6 @@
     <t>MnR-DongDong2</t>
   </si>
   <si>
-    <t>No_Mercy85</t>
-  </si>
-  <si>
     <t>Neckeserr</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>hubigo</t>
   </si>
   <si>
-    <t>MrBubbleLupin</t>
-  </si>
-  <si>
     <t>Baninrok</t>
   </si>
   <si>
@@ -1092,10 +1086,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>유비식스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>티버레이크</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1333,6 +1323,30 @@
   </si>
   <si>
     <t>3World</t>
+  </si>
+  <si>
+    <t>뉴비식스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SalaryLupin</t>
+  </si>
+  <si>
+    <t>Sybox85</t>
+  </si>
+  <si>
+    <t>우키조아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Justice84</t>
+  </si>
+  <si>
+    <t>제로텐</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NaKwang</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2297,7 +2311,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2305,103 +2319,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2409,55 +2423,55 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -2465,95 +2479,95 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2561,7 +2575,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2569,584 +2583,600 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>135</v>
+      <c r="A47" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>173</v>
+      <c r="A51" t="s">
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>76</v>
+      <c r="A52" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>106</v>
+      <c r="A54" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>143</v>
+      <c r="A56" t="s">
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>122</v>
+      <c r="A57" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>168</v>
+      <c r="A61" t="s">
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>102</v>
+      <c r="A63" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>116</v>
+      <c r="A64" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>158</v>
+      <c r="A68" t="s">
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>167</v>
+      <c r="A69" t="s">
+        <v>105</v>
       </c>
       <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>117</v>
-      </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>138</v>
+      <c r="A76" t="s">
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>120</v>
+      <c r="A78" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>97</v>
-      </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>201</v>
+      <c r="A81" t="s">
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" t="s">
-        <v>34</v>
+        <v>131</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:2">
+      <c r="A93" s="1"/>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>137</v>
-      </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>87</v>
-      </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1"/>
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" s="1"/>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>92</v>
-      </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="B109" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>177</v>
+      <c r="A110" t="s">
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
       <c r="B112" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B113" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="B116" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1347,6 +1347,18 @@
   </si>
   <si>
     <t>NaKwang</t>
+  </si>
+  <si>
+    <t>빨간탈포스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진준화</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2298,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,584 +2530,586 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>79</v>
+      <c r="A27" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>134</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>74</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>105</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>98</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>95</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="B82" t="s">
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="B89" t="s">
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>102</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1"/>
-      <c r="B93" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1"/>
+      <c r="B94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>116</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>135</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="B99" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>85</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1"/>
-      <c r="B104" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3175,7 +3189,15 @@
       </c>
     </row>
     <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="B116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="B117" t="s">
         <v>204</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Raknos</t>
   </si>
   <si>
-    <t>GubniPR</t>
-  </si>
-  <si>
     <t>Scutum</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>SSONGDOO_TV</t>
   </si>
   <si>
-    <t>KwonJoonHo</t>
-  </si>
-  <si>
     <t>almaloss</t>
   </si>
   <si>
@@ -423,19 +417,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>갑니</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>윤비게일</t>
     </r>
   </si>
@@ -1153,212 +1134,220 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>아침</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hanna_KR</t>
+  </si>
+  <si>
+    <t>지옥불반도</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JIOKBULBANDO</t>
+  </si>
+  <si>
+    <t>pekoshin</t>
+  </si>
+  <si>
+    <t>스린이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>js_sick</t>
+  </si>
+  <si>
+    <t>오렌지페코</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>쿠마</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lee30111</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kanie_SDM</t>
+  </si>
+  <si>
+    <t>sfktj-karin</t>
+  </si>
+  <si>
+    <t>기파랑</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>자드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KOR_ZARD</t>
+  </si>
+  <si>
+    <t>KickBomb</t>
+  </si>
+  <si>
+    <t>thealto</t>
+  </si>
+  <si>
+    <t>쓰랄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thrall_77</t>
+  </si>
+  <si>
+    <t>murgaking</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>고양이파</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>llllllll</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>귀욤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>I_am_chobo</t>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Xiller</t>
+  </si>
+  <si>
+    <t>빈방</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>emptyroom</t>
+  </si>
+  <si>
+    <t>식순이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아키아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akia1013</t>
+  </si>
+  <si>
+    <t>앜하밭하</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akavata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>울브</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HongSam1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>불곰</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>코메디언</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>realukyo</t>
+  </si>
+  <si>
+    <t>AHIIII</t>
+  </si>
+  <si>
+    <t>SF5-JY</t>
+  </si>
+  <si>
+    <t>IIlIIlIIlIIlIIlI</t>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>mypojo</t>
+  </si>
+  <si>
+    <t>Rmaskforce_PS4</t>
+  </si>
+  <si>
+    <t>TerryAhn</t>
+  </si>
+  <si>
+    <t>Zero_ten</t>
+  </si>
+  <si>
+    <t>3World</t>
+  </si>
+  <si>
+    <t>뉴비식스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SalaryLupin</t>
+  </si>
+  <si>
+    <t>Sybox85</t>
+  </si>
+  <si>
+    <t>우키조아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Justice84</t>
+  </si>
+  <si>
+    <t>제로텐</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NaKwang</t>
+  </si>
+  <si>
+    <t>빨간탈포스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진준화</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>부랑카</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>lovlotus</t>
-  </si>
-  <si>
-    <t>아침</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Hanna_KR</t>
-  </si>
-  <si>
-    <t>지옥불반도</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>JIOKBULBANDO</t>
-  </si>
-  <si>
-    <t>pekoshin</t>
-  </si>
-  <si>
-    <t>스린이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>js_sick</t>
-  </si>
-  <si>
-    <t>오렌지페코</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>쿠마</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lee30111</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Kanie_SDM</t>
-  </si>
-  <si>
-    <t>sfktj-karin</t>
-  </si>
-  <si>
-    <t>기파랑</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>자드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KOR_ZARD</t>
-  </si>
-  <si>
-    <t>KickBomb</t>
-  </si>
-  <si>
-    <t>thealto</t>
-  </si>
-  <si>
-    <t>쓰랄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thrall_77</t>
-  </si>
-  <si>
-    <t>murgaking</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>고양이파</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>llllllll</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>귀욤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>I_am_chobo</t>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Xiller</t>
-  </si>
-  <si>
-    <t>빈방</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>emptyroom</t>
-  </si>
-  <si>
-    <t>식순이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아키아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akia1013</t>
-  </si>
-  <si>
-    <t>앜하밭하</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akavata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>울브</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HongSam1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>불곰</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>코메디언</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>realukyo</t>
-  </si>
-  <si>
-    <t>AHIIII</t>
-  </si>
-  <si>
-    <t>SF5-JY</t>
-  </si>
-  <si>
-    <t>IIlIIlIIlIIlIIlI</t>
-  </si>
-  <si>
-    <t>바코드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>권준호</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>mypojo</t>
-  </si>
-  <si>
-    <t>Rmaskforce_PS4</t>
-  </si>
-  <si>
-    <t>TerryAhn</t>
-  </si>
-  <si>
-    <t>Zero_ten</t>
-  </si>
-  <si>
-    <t>3World</t>
-  </si>
-  <si>
-    <t>뉴비식스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SalaryLupin</t>
-  </si>
-  <si>
-    <t>Sybox85</t>
-  </si>
-  <si>
-    <t>우키조아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Justice84</t>
-  </si>
-  <si>
-    <t>제로텐</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NaKwang</t>
-  </si>
-  <si>
-    <t>빨간탈포스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>진준화</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0ovwwvo0</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2323,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2331,66 +2320,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>86</v>
+      <c r="A6" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>169</v>
+      <c r="A9" t="s">
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2398,196 +2387,196 @@
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>106</v>
+      <c r="A17" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>181</v>
+      <c r="A19" t="s">
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="A25" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2595,7 +2584,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2603,151 +2592,151 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -2755,63 +2744,63 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2819,55 +2808,55 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -2875,44 +2864,44 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -2920,15 +2909,15 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -2936,52 +2925,52 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2991,214 +2980,208 @@
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>130</v>
-      </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>152</v>
+      <c r="B91" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B92" t="s">
-        <v>20</v>
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1"/>
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>116</v>
-      </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>135</v>
-      </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>81</v>
-      </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>117</v>
-      </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>90</v>
-      </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="B111" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>137</v>
+      <c r="A114" t="s">
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>109</v>
+      <c r="A115" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="B116" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1348,6 +1348,10 @@
   </si>
   <si>
     <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>limleedo</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2299,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2807,380 +2811,385 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>102</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>95</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>92</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="B88" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>127</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" t="s">
-        <v>31</v>
+        <v>128</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>113</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="B99" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>79</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="B106" t="s">
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>114</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="B108" t="s">
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>87</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="B110" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="B111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B112" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>106</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="B116" t="s">
+    <row r="117" spans="1:2">
+      <c r="B117" t="s">
         <v>199</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -181,9 +181,6 @@
     <t>KimNeuru</t>
   </si>
   <si>
-    <t>PungsinKen</t>
-  </si>
-  <si>
     <t>SF5_A6</t>
   </si>
   <si>
@@ -900,20 +897,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>풍신켄</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>이글맨</t>
     </r>
   </si>
@@ -1351,6 +1334,17 @@
   </si>
   <si>
     <t>limleedo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SQUILLA</t>
+  </si>
+  <si>
+    <t>밀피</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>캐미</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2305,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2316,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2324,7 +2318,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2332,7 +2326,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2340,7 +2334,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2348,39 +2342,39 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -2388,15 +2382,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2404,7 +2398,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2412,7 +2406,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2420,15 +2414,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2436,31 +2430,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -2468,7 +2462,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2476,621 +2470,624 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>85</v>
+      <c r="A22" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>77</v>
+      <c r="A28" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>131</v>
+      <c r="A31" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
         <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>96</v>
+      <c r="A38" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>94</v>
+      <c r="A42" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>89</v>
+      <c r="A44" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>130</v>
+      <c r="A49" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>72</v>
+      <c r="A54" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>101</v>
+      <c r="A57" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>73</v>
+      <c r="A62" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="B63" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>97</v>
+      <c r="A67" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>112</v>
-      </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>127</v>
-      </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
       <c r="B92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" t="s">
-        <v>31</v>
+        <v>126</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
         <v>34</v>
@@ -3098,7 +3095,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
@@ -3106,7 +3103,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
@@ -3114,7 +3111,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3122,12 +3119,12 @@
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -3135,12 +3132,12 @@
     </row>
     <row r="109" spans="1:2">
       <c r="B109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
@@ -3148,33 +3145,33 @@
     </row>
     <row r="111" spans="1:2">
       <c r="B111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="B112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
@@ -3182,15 +3179,15 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="B117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -178,9 +178,6 @@
     <t>RockmanHH</t>
   </si>
   <si>
-    <t>KimNeuru</t>
-  </si>
-  <si>
     <t>SF5_A6</t>
   </si>
   <si>
@@ -884,19 +881,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>김느루</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>이글맨</t>
     </r>
   </si>
@@ -1345,6 +1329,10 @@
   </si>
   <si>
     <t>캐미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아히</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2297,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2310,7 +2298,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2318,7 +2306,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2326,7 +2314,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2334,7 +2322,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2342,34 +2330,34 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2377,817 +2365,812 @@
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>102</v>
+      <c r="A16" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>175</v>
+      <c r="A18" t="s">
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>92</v>
+      <c r="A21" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>214</v>
+      <c r="A22" t="s">
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>103</v>
+      <c r="A25" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>205</v>
+      <c r="A28" t="s">
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>104</v>
+      <c r="A30" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>156</v>
+      <c r="A31" t="s">
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>129</v>
+      <c r="A32" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>134</v>
+      <c r="A33" t="s">
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>70</v>
+      <c r="A36" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>180</v>
+      <c r="A38" t="s">
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>87</v>
       </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>90</v>
+      <c r="A47" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>184</v>
+      <c r="A49" t="s">
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>89</v>
+      <c r="A53" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>164</v>
+      <c r="A54" t="s">
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>71</v>
+      <c r="A55" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>144</v>
+      <c r="A57" t="s">
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>100</v>
+      <c r="A58" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>135</v>
+      <c r="A60" t="s">
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>116</v>
+      <c r="A61" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>186</v>
+      <c r="A62" t="s">
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>72</v>
+      <c r="A63" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
+      <c r="A67" t="s">
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>101</v>
+      <c r="A72" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>94</v>
+      <c r="A80" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>125</v>
-      </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
-        <v>27</v>
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>130</v>
-      </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>78</v>
-      </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>85</v>
+      </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>86</v>
-      </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="B111" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>132</v>
+      <c r="A114" t="s">
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>105</v>
+      <c r="A115" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="B116" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1090,10 +1090,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>sparkstar</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>esw310</t>
   </si>
   <si>
@@ -1229,13 +1225,6 @@
   <si>
     <t>불곰</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>코메디언</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>realukyo</t>
   </si>
   <si>
     <t>AHIIII</t>
@@ -2285,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2306,7 +2295,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2330,34 +2319,34 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2413,7 +2402,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2426,10 +2415,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
         <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2458,10 +2447,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2490,26 +2479,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" t="s">
         <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2517,7 +2506,7 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2530,10 +2519,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
         <v>154</v>
-      </c>
-      <c r="B30" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2578,18 +2567,18 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
         <v>149</v>
-      </c>
-      <c r="B36" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
         <v>178</v>
-      </c>
-      <c r="B37" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2634,10 +2623,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
         <v>180</v>
-      </c>
-      <c r="B43" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2666,18 +2655,18 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
         <v>182</v>
-      </c>
-      <c r="B48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2714,10 +2703,10 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2730,10 +2719,10 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2754,10 +2743,10 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" t="s">
         <v>151</v>
-      </c>
-      <c r="B58" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2778,7 +2767,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
@@ -2794,383 +2783,370 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>136</v>
+      <c r="A66" t="s">
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>100</v>
+      <c r="A71" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>214</v>
+      <c r="A74" t="s">
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>93</v>
+      <c r="A79" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>123</v>
-      </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="B92" t="s">
-        <v>27</v>
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>145</v>
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>111</v>
-      </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>128</v>
-      </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>77</v>
-      </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="B108" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>85</v>
-      </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>166</v>
+      <c r="A112" t="s">
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>104</v>
-      </c>
       <c r="B114" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="B116" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Panzerdivision</t>
   </si>
   <si>
-    <t>Plato8</t>
-  </si>
-  <si>
     <t>q-port</t>
   </si>
   <si>
@@ -1238,9 +1235,6 @@
   <si>
     <t>바코드</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>mypojo</t>
   </si>
   <si>
     <t>Rmaskforce_PS4</t>
@@ -2274,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2287,7 +2281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2295,23 +2289,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2319,47 +2313,47 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
         <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2367,15 +2361,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2383,15 +2377,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2399,39 +2393,39 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
         <v>172</v>
-      </c>
-      <c r="B17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2439,7 +2433,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -2447,15 +2441,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2463,95 +2457,95 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
         <v>174</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2559,7 +2553,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2567,23 +2561,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
         <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" t="s">
         <v>177</v>
-      </c>
-      <c r="B37" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -2591,15 +2585,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -2607,15 +2601,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
         <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2623,15 +2617,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
         <v>179</v>
-      </c>
-      <c r="B43" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -2639,15 +2633,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -2655,31 +2649,31 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -2687,15 +2681,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2703,15 +2697,15 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
         <v>161</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -2719,63 +2713,63 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
         <v>150</v>
-      </c>
-      <c r="B58" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2783,31 +2777,31 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
         <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -2815,23 +2809,23 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -2839,47 +2833,47 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -2887,15 +2881,15 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -2903,7 +2897,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -2911,28 +2905,28 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
@@ -2940,15 +2934,15 @@
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2958,33 +2952,33 @@
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2994,15 +2988,15 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
@@ -3010,143 +3004,133 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>127</v>
+      </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>128</v>
-      </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>80</v>
+      </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>116</v>
-      </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>85</v>
-      </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>165</v>
+      <c r="A110" t="s">
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
       <c r="B112" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="B114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1147,175 +1147,185 @@
     <t>KOR_ZARD</t>
   </si>
   <si>
+    <t>thealto</t>
+  </si>
+  <si>
+    <t>쓰랄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thrall_77</t>
+  </si>
+  <si>
+    <t>고양이파</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>llllllll</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>귀욤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>I_am_chobo</t>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Xiller</t>
+  </si>
+  <si>
+    <t>빈방</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>emptyroom</t>
+  </si>
+  <si>
+    <t>아키아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akia1013</t>
+  </si>
+  <si>
+    <t>앜하밭하</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akavata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>불곰</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AHIIII</t>
+  </si>
+  <si>
+    <t>SF5-JY</t>
+  </si>
+  <si>
+    <t>IIlIIlIIlIIlIIlI</t>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Rmaskforce_PS4</t>
+  </si>
+  <si>
+    <t>TerryAhn</t>
+  </si>
+  <si>
+    <t>Zero_ten</t>
+  </si>
+  <si>
+    <t>3World</t>
+  </si>
+  <si>
+    <t>뉴비식스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SalaryLupin</t>
+  </si>
+  <si>
+    <t>Sybox85</t>
+  </si>
+  <si>
+    <t>우키조아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Justice84</t>
+  </si>
+  <si>
+    <t>제로텐</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NaKwang</t>
+  </si>
+  <si>
+    <t>빨간탈포스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진준화</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>부랑카</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lovlotus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>limleedo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SQUILLA</t>
+  </si>
+  <si>
+    <t>밀피</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>캐미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아히</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kingca</t>
+  </si>
+  <si>
+    <t>김희도</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>실버</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HongSam1</t>
+  </si>
+  <si>
+    <t>Ohhoho</t>
+  </si>
+  <si>
+    <t>아하!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>킥밤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>KickBomb</t>
-  </si>
-  <si>
-    <t>thealto</t>
-  </si>
-  <si>
-    <t>쓰랄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thrall_77</t>
-  </si>
-  <si>
-    <t>murgaking</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>고양이파</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>llllllll</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>귀욤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>I_am_chobo</t>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Xiller</t>
-  </si>
-  <si>
-    <t>빈방</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>emptyroom</t>
-  </si>
-  <si>
-    <t>식순이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아키아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akia1013</t>
-  </si>
-  <si>
-    <t>앜하밭하</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akavata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>울브</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HongSam1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>불곰</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AHIIII</t>
-  </si>
-  <si>
-    <t>SF5-JY</t>
-  </si>
-  <si>
-    <t>IIlIIlIIlIIlIIlI</t>
-  </si>
-  <si>
-    <t>바코드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Rmaskforce_PS4</t>
-  </si>
-  <si>
-    <t>TerryAhn</t>
-  </si>
-  <si>
-    <t>Zero_ten</t>
-  </si>
-  <si>
-    <t>3World</t>
-  </si>
-  <si>
-    <t>뉴비식스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SalaryLupin</t>
-  </si>
-  <si>
-    <t>Sybox85</t>
-  </si>
-  <si>
-    <t>우키조아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Justice84</t>
-  </si>
-  <si>
-    <t>제로텐</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NaKwang</t>
-  </si>
-  <si>
-    <t>빨간탈포스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>진준화</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0ovwwvo0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>부랑카</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lovlotus</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>카톡</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KaKaoTalk</t>
-  </si>
-  <si>
-    <t>limleedo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SQUILLA</t>
-  </si>
-  <si>
-    <t>밀피</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>캐미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아히</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2268,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2289,7 +2299,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -2313,7 +2323,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>166</v>
@@ -2329,18 +2339,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2396,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2409,10 +2419,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2441,10 +2451,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2473,26 +2483,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2500,7 +2510,7 @@
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2544,593 +2554,604 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>72</v>
+      <c r="A34" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>93</v>
+      <c r="A38" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>118</v>
+      <c r="A45" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s">
-        <v>181</v>
-      </c>
-    </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>125</v>
+      <c r="A49" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>87</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>108</v>
+      <c r="A67" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>99</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>109</v>
+      <c r="A74" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
+      <c r="A75" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>92</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>112</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="B89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>122</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>31</v>
+        <v>123</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>110</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>127</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="B98" t="s">
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>76</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" t="s">
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>84</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="B106" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>103</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -214,9 +214,6 @@
     <t>nanahistory</t>
   </si>
   <si>
-    <t>NigawaComeON</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1013,20 +1010,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>니가와</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>엘렌가든</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1296,10 +1279,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>아히</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Kingca</t>
   </si>
   <si>
@@ -1307,25 +1286,15 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>실버</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HongSam1</t>
-  </si>
-  <si>
-    <t>Ohhoho</t>
-  </si>
-  <si>
-    <t>아하!</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>킥밤</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>KickBomb</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하이</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2278,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2291,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2299,7 +2268,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -2307,7 +2276,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -2315,7 +2284,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2323,39 +2292,39 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -2363,7 +2332,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2371,7 +2340,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -2379,7 +2348,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2387,7 +2356,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -2395,7 +2364,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2403,31 +2372,31 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2435,7 +2404,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2443,7 +2412,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -2451,15 +2420,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2467,7 +2436,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -2475,7 +2444,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -2483,39 +2452,39 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -2523,15 +2492,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -2539,619 +2508,595 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>207</v>
+      <c r="A34" t="s">
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>68</v>
+      <c r="A36" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>173</v>
+      <c r="A38" t="s">
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>210</v>
+      <c r="A40" t="s">
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>104</v>
+      <c r="A41" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>175</v>
+      <c r="A45" t="s">
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>118</v>
+      <c r="A47" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>189</v>
+      <c r="A49" t="s">
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>116</v>
+      <c r="A52" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>69</v>
+      <c r="A55" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>191</v>
+      <c r="A56" t="s">
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>98</v>
+      <c r="A58" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>149</v>
+      <c r="A59" t="s">
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>70</v>
+      <c r="A63" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>135</v>
+      <c r="A66" t="s">
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>211</v>
+      <c r="A67" t="s">
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>77</v>
+      <c r="A71" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>99</v>
+      <c r="A72" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>154</v>
+      <c r="A74" t="s">
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>204</v>
+      <c r="A75" t="s">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>78</v>
+      <c r="A79" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>128</v>
+      <c r="A81" t="s">
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>112</v>
-      </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>89</v>
+      <c r="A84" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>198</v>
+      <c r="A89" t="s">
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>122</v>
       </c>
-      <c r="B91" t="s">
-        <v>60</v>
+      <c r="B91" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>110</v>
-      </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>80</v>
-      </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>84</v>
+      <c r="A106" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="B110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -109,9 +109,6 @@
     <t>JaebumPark</t>
   </si>
   <si>
-    <t>Ladeckku</t>
-  </si>
-  <si>
     <t>Panzerdivision</t>
   </si>
   <si>
@@ -611,19 +608,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>라데꾸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>큐폿</t>
     </r>
   </si>
@@ -1042,9 +1026,6 @@
     <t>kubambam</t>
   </si>
   <si>
-    <t>SF5-GoZeT</t>
-  </si>
-  <si>
     <t>암핏</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1169,13 +1150,6 @@
     <t>emptyroom</t>
   </si>
   <si>
-    <t>아키아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akia1013</t>
-  </si>
-  <si>
     <t>앜하밭하</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1279,13 +1253,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Kingca</t>
-  </si>
-  <si>
-    <t>김희도</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>킥밤</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1295,6 +1262,14 @@
   </si>
   <si>
     <t>아하이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Emiyamulzomdao</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>애미야</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2247,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2260,7 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2268,23 +2243,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2292,811 +2267,790 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>203</v>
+      <c r="A8" t="s">
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>99</v>
+      <c r="A15" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>167</v>
+      <c r="A17" t="s">
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>89</v>
+      <c r="A20" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>200</v>
+      <c r="A21" t="s">
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>100</v>
+      <c r="A24" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>191</v>
+      <c r="A27" t="s">
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>101</v>
+      <c r="A29" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>150</v>
+      <c r="A30" t="s">
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>125</v>
+      <c r="A31" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>129</v>
+      <c r="A32" t="s">
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>67</v>
+      <c r="A35" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>145</v>
+      <c r="A36" t="s">
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>171</v>
+      <c r="A37" t="s">
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>103</v>
+      <c r="A39" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>173</v>
+      <c r="A43" t="s">
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>117</v>
+      <c r="A45" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>187</v>
+      <c r="A47" t="s">
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>115</v>
+      <c r="A50" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>68</v>
+      <c r="A53" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>189</v>
+      <c r="A54" t="s">
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>97</v>
+      <c r="A56" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>147</v>
+      <c r="A57" t="s">
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>69</v>
+      <c r="A61" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>133</v>
+      <c r="A64" t="s">
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>204</v>
+      <c r="A65" t="s">
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>76</v>
+      <c r="A69" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>98</v>
+      <c r="A70" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>152</v>
+      <c r="A72" t="s">
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>206</v>
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
+      <c r="A77" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>91</v>
+      <c r="A78" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>88</v>
-      </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>121</v>
-      </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="B90" t="s">
-        <v>27</v>
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>109</v>
-      </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>110</v>
-      </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>83</v>
+      <c r="A103" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B109" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="B110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -166,9 +166,6 @@
     <t>MagmaAxis</t>
   </si>
   <si>
-    <t>CHAJIWOON</t>
-  </si>
-  <si>
     <t>RockmanHH</t>
   </si>
   <si>
@@ -833,19 +830,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>차지운</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>록맨</t>
     </r>
   </si>
@@ -1072,204 +1056,209 @@
     <t>JIOKBULBANDO</t>
   </si>
   <si>
+    <t>스린이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>js_sick</t>
+  </si>
+  <si>
+    <t>오렌지페코</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>쿠마</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lee30111</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kanie_SDM</t>
+  </si>
+  <si>
+    <t>sfktj-karin</t>
+  </si>
+  <si>
+    <t>기파랑</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>자드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KOR_ZARD</t>
+  </si>
+  <si>
+    <t>thealto</t>
+  </si>
+  <si>
+    <t>쓰랄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thrall_77</t>
+  </si>
+  <si>
+    <t>고양이파</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>llllllll</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>귀욤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>I_am_chobo</t>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Xiller</t>
+  </si>
+  <si>
+    <t>빈방</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>emptyroom</t>
+  </si>
+  <si>
+    <t>앜하밭하</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akavata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>불곰</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AHIIII</t>
+  </si>
+  <si>
+    <t>SF5-JY</t>
+  </si>
+  <si>
+    <t>Rmaskforce_PS4</t>
+  </si>
+  <si>
+    <t>Zero_ten</t>
+  </si>
+  <si>
+    <t>3World</t>
+  </si>
+  <si>
+    <t>뉴비식스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SalaryLupin</t>
+  </si>
+  <si>
+    <t>Sybox85</t>
+  </si>
+  <si>
+    <t>우키조아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Justice84</t>
+  </si>
+  <si>
+    <t>제로텐</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NaKwang</t>
+  </si>
+  <si>
+    <t>빨간탈포스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진준화</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>부랑카</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lovlotus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>limleedo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SQUILLA</t>
+  </si>
+  <si>
+    <t>밀피</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>캐미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>킥밤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KickBomb</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Emiyamulzomdao</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>애미야</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>dhschenk</t>
+  </si>
+  <si>
+    <t>헐랭이손</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>notpsycho</t>
+  </si>
+  <si>
+    <t>머쓸빠워</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>pekoshin</t>
-  </si>
-  <si>
-    <t>스린이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>js_sick</t>
-  </si>
-  <si>
-    <t>오렌지페코</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>쿠마</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lee30111</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Kanie_SDM</t>
-  </si>
-  <si>
-    <t>sfktj-karin</t>
-  </si>
-  <si>
-    <t>기파랑</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>자드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KOR_ZARD</t>
-  </si>
-  <si>
-    <t>thealto</t>
-  </si>
-  <si>
-    <t>쓰랄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thrall_77</t>
-  </si>
-  <si>
-    <t>고양이파</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>llllllll</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>귀욤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>I_am_chobo</t>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Xiller</t>
-  </si>
-  <si>
-    <t>빈방</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>emptyroom</t>
-  </si>
-  <si>
-    <t>앜하밭하</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akavata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>불곰</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AHIIII</t>
-  </si>
-  <si>
-    <t>SF5-JY</t>
-  </si>
-  <si>
-    <t>IIlIIlIIlIIlIIlI</t>
-  </si>
-  <si>
-    <t>바코드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Rmaskforce_PS4</t>
-  </si>
-  <si>
-    <t>TerryAhn</t>
-  </si>
-  <si>
-    <t>Zero_ten</t>
-  </si>
-  <si>
-    <t>3World</t>
-  </si>
-  <si>
-    <t>뉴비식스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SalaryLupin</t>
-  </si>
-  <si>
-    <t>Sybox85</t>
-  </si>
-  <si>
-    <t>우키조아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Justice84</t>
-  </si>
-  <si>
-    <t>제로텐</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NaKwang</t>
-  </si>
-  <si>
-    <t>빨간탈포스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>진준화</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0ovwwvo0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>부랑카</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lovlotus</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>카톡</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KaKaoTalk</t>
-  </si>
-  <si>
-    <t>limleedo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SQUILLA</t>
-  </si>
-  <si>
-    <t>밀피</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>캐미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>킥밤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KickBomb</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아하이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Emiyamulzomdao</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>애미야</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2222,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2235,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2243,7 +2232,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -2251,7 +2240,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -2259,7 +2248,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2267,628 +2256,628 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>77</v>
+      <c r="A9" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>137</v>
+      <c r="A15" t="s">
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>110</v>
+      <c r="A17" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>69</v>
+      <c r="A18" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>195</v>
+      <c r="A20" t="s">
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A22" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>70</v>
+      <c r="A33" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>142</v>
+      <c r="A35" t="s">
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>101</v>
+      <c r="A37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>133</v>
+      <c r="A39" t="s">
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>115</v>
+      <c r="A43" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>113</v>
+      <c r="A48" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>155</v>
+      <c r="A50" t="s">
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>184</v>
+      <c r="A52" t="s">
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>68</v>
+      <c r="A59" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>150</v>
+      <c r="A61" t="s">
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>92</v>
+      <c r="A64" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>105</v>
+      <c r="A65" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>106</v>
+      <c r="A72" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="B82" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2898,28 +2887,28 @@
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2929,15 +2918,15 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
@@ -2945,7 +2934,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2960,7 +2949,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
@@ -2968,7 +2957,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -2976,15 +2965,15 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -2992,7 +2981,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
         <v>46</v>
@@ -3000,7 +2989,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
@@ -3008,49 +2997,44 @@
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>125</v>
+      <c r="A104" t="s">
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>100</v>
+      <c r="A105" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="B107" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1053,9 +1053,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>JIOKBULBANDO</t>
-  </si>
-  <si>
     <t>스린이</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1259,6 +1256,47 @@
   </si>
   <si>
     <t>pekoshin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>맥가츄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>McKachu</t>
+  </si>
+  <si>
+    <t>쌍환타</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5Highnoon</t>
+  </si>
+  <si>
+    <t>GuardJung</t>
+  </si>
+  <si>
+    <t>JIOKBULBANDO_PS4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FourDollar</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>달라</t>
+    </r>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2211,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2232,7 +2270,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -2256,26 +2294,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2288,10 +2326,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2339,7 +2377,7 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2352,689 +2390,718 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>109</v>
-      </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>71</v>
+      <c r="A29" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>121</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>100</v>
+      <c r="A39" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>131</v>
+      <c r="A41" t="s">
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>113</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>78</v>
+      <c r="A50" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>152</v>
+      <c r="A53" t="s">
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>134</v>
+      <c r="A56" t="s">
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>94</v>
+      <c r="A57" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>126</v>
+      <c r="A59" t="s">
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
         <v>191</v>
-      </c>
-      <c r="B65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>95</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>105</v>
+      <c r="A73" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>89</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
       <c r="B80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" t="s">
-        <v>58</v>
+      <c r="A88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>137</v>
+      <c r="B90" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>81</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B103" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>99</v>
-      </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
         <v>181</v>
       </c>
-      <c r="B105" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="B106" t="s">
-        <v>172</v>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1298,6 +1298,26 @@
       <t>달라</t>
     </r>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>스린이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ryurisa</t>
   </si>
 </sst>
 </file>
@@ -2249,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2517,590 +2537,598 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>121</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>84</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>95</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>89</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="B81" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>108</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="B90" t="s">
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>117</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="B92" t="s">
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>106</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>81</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="B104" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B105" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>99</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" t="s">
+    <row r="110" spans="1:2">
+      <c r="B110" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>207</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>206</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Scutum</t>
   </si>
   <si>
-    <t>1st-BY</t>
-  </si>
-  <si>
     <t>REDFLOWER</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>RockmanHH</t>
   </si>
   <si>
-    <t>SF5_A6</t>
-  </si>
-  <si>
     <t>son01420309</t>
   </si>
   <si>
@@ -412,7 +406,856 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>바이</t>
+      <t>레드플라워</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쏭두</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>알마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여우비</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우주괴수</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>행인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>민님</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>압도</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코두리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아태</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테시스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에드랑꼬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>큐폿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>젤리샵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>후비고</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>루팡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벨거</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사쿨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤권</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>악철</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신형준</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>던지</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하야센</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>알트키</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿠마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신스퀘어</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갓주홍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마그마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>록맨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>나락가마</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옴니버스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>햄순</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반달곰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>란테르트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>까망</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오늘은해피</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>발닦고자라</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유백</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스팀입문자</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>엘렌가든</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>티버레이크</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tiberlake</t>
+  </si>
+  <si>
+    <t>시아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진수가</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Feelingit</t>
+  </si>
+  <si>
+    <t>artheaven</t>
+  </si>
+  <si>
+    <t>쿠밤밤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>kubambam</t>
+  </si>
+  <si>
+    <t>암핏</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>armpitplay</t>
+  </si>
+  <si>
+    <t>John-Wick</t>
+  </si>
+  <si>
+    <t>제쿠</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>린보찡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>rinbo7-pc</t>
+  </si>
+  <si>
+    <t>kr_solohappy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>esw310</t>
+  </si>
+  <si>
+    <t>히즈미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아침</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hanna_KR</t>
+  </si>
+  <si>
+    <t>지옥불반도</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>스린이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>js_sick</t>
+  </si>
+  <si>
+    <t>오렌지페코</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>쿠마</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lee30111</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kanie_SDM</t>
+  </si>
+  <si>
+    <t>sfktj-karin</t>
+  </si>
+  <si>
+    <t>기파랑</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>자드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KOR_ZARD</t>
+  </si>
+  <si>
+    <t>thealto</t>
+  </si>
+  <si>
+    <t>쓰랄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thrall_77</t>
+  </si>
+  <si>
+    <t>고양이파</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>llllllll</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>귀욤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>I_am_chobo</t>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Xiller</t>
+  </si>
+  <si>
+    <t>빈방</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>emptyroom</t>
+  </si>
+  <si>
+    <t>앜하밭하</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>akavata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>불곰</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AHIIII</t>
+  </si>
+  <si>
+    <t>Rmaskforce_PS4</t>
+  </si>
+  <si>
+    <t>Zero_ten</t>
+  </si>
+  <si>
+    <t>3World</t>
+  </si>
+  <si>
+    <t>뉴비식스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SalaryLupin</t>
+  </si>
+  <si>
+    <t>Sybox85</t>
+  </si>
+  <si>
+    <t>우키조아</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Justice84</t>
+  </si>
+  <si>
+    <t>제로텐</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NaKwang</t>
+  </si>
+  <si>
+    <t>빨간탈포스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>진준화</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0ovwwvo0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>부랑카</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lovlotus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KaKaoTalk</t>
+  </si>
+  <si>
+    <t>limleedo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SQUILLA</t>
+  </si>
+  <si>
+    <t>밀피</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>캐미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>킥밤</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KickBomb</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>아하이</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Emiyamulzomdao</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>애미야</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>dhschenk</t>
+  </si>
+  <si>
+    <t>헐랭이손</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>notpsycho</t>
+  </si>
+  <si>
+    <t>머쓸빠워</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pekoshin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>맥가츄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>McKachu</t>
+  </si>
+  <si>
+    <t>쌍환타</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5Highnoon</t>
+  </si>
+  <si>
+    <t>GuardJung</t>
+  </si>
+  <si>
+    <t>JIOKBULBANDO_PS4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FourDollar</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>달라</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>스린이</t>
     </r>
     <r>
       <rPr>
@@ -423,901 +1266,26 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>레드플라워</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쏭두</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>알마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>여우비</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>우주괴수</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>행인</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>민님</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>압도</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코두리</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아태</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>테시스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에드랑꼬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>큐폿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>젤리샵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>후비고</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>루팡</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벨거</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사쿨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>윤권</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>악철</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>신형준</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>던지</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하야센</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>알트키</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿠마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>신스퀘어</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>갓주홍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마그마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>록맨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이글맨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>나락가마</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옴니버스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>햄순</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>반달곰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>란테르트</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>까망</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>오늘은해피</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>발닦고자라</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유백</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스팀입문자</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>엘렌가든</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>티버레이크</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tiberlake</t>
-  </si>
-  <si>
-    <t>시아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>진수가</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Feelingit</t>
-  </si>
-  <si>
-    <t>artheaven</t>
-  </si>
-  <si>
-    <t>쿠밤밤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>kubambam</t>
-  </si>
-  <si>
-    <t>암핏</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>armpitplay</t>
-  </si>
-  <si>
-    <t>John-Wick</t>
-  </si>
-  <si>
-    <t>제쿠</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>린보찡</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>rinbo7-pc</t>
-  </si>
-  <si>
-    <t>kr_solohappy</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>esw310</t>
-  </si>
-  <si>
-    <t>히즈미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아침</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Hanna_KR</t>
-  </si>
-  <si>
-    <t>지옥불반도</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>스린이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>js_sick</t>
-  </si>
-  <si>
-    <t>오렌지페코</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>쿠마</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lee30111</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Kanie_SDM</t>
-  </si>
-  <si>
-    <t>sfktj-karin</t>
-  </si>
-  <si>
-    <t>기파랑</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>자드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KOR_ZARD</t>
-  </si>
-  <si>
-    <t>thealto</t>
-  </si>
-  <si>
-    <t>쓰랄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thrall_77</t>
-  </si>
-  <si>
-    <t>고양이파</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>llllllll</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>귀욤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>I_am_chobo</t>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Xiller</t>
-  </si>
-  <si>
-    <t>빈방</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>emptyroom</t>
-  </si>
-  <si>
-    <t>앜하밭하</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>akavata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>불곰</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AHIIII</t>
-  </si>
-  <si>
-    <t>SF5-JY</t>
-  </si>
-  <si>
-    <t>Rmaskforce_PS4</t>
-  </si>
-  <si>
-    <t>Zero_ten</t>
-  </si>
-  <si>
-    <t>3World</t>
-  </si>
-  <si>
-    <t>뉴비식스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SalaryLupin</t>
-  </si>
-  <si>
-    <t>Sybox85</t>
-  </si>
-  <si>
-    <t>우키조아</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Justice84</t>
-  </si>
-  <si>
-    <t>제로텐</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NaKwang</t>
-  </si>
-  <si>
-    <t>빨간탈포스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>진준화</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0ovwwvo0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>부랑카</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lovlotus</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>카톡</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KaKaoTalk</t>
-  </si>
-  <si>
-    <t>limleedo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SQUILLA</t>
-  </si>
-  <si>
-    <t>밀피</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>캐미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>킥밤</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KickBomb</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>아하이</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Emiyamulzomdao</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>애미야</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>dhschenk</t>
-  </si>
-  <si>
-    <t>헐랭이손</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>notpsycho</t>
-  </si>
-  <si>
-    <t>머쓸빠워</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>pekoshin</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>맥가츄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>McKachu</t>
-  </si>
-  <si>
-    <t>쌍환타</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>5Highnoon</t>
-  </si>
-  <si>
-    <t>GuardJung</t>
-  </si>
-  <si>
-    <t>JIOKBULBANDO_PS4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>FourDollar</t>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>달라</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>스린이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>ryurisa</t>
+  </si>
+  <si>
+    <t>도미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ImDomi</t>
+  </si>
+  <si>
+    <t>kissmylip</t>
+  </si>
+  <si>
+    <t>키스</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2269,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2282,7 +2250,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2290,71 +2258,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2362,223 +2330,223 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>70</v>
+      <c r="A12" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>135</v>
+      <c r="A16" t="s">
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>109</v>
+      <c r="A20" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>188</v>
+      <c r="A23" t="s">
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>79</v>
+      <c r="A24" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -2586,7 +2554,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2594,111 +2562,111 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2706,430 +2674,425 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>84</v>
+      <c r="A55" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>151</v>
+      <c r="A56" t="s">
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>66</v>
+      <c r="A57" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>134</v>
+      <c r="A59" t="s">
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>94</v>
+      <c r="A60" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>166</v>
+      <c r="A62" t="s">
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>67</v>
+      <c r="A63" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>190</v>
+      <c r="A67" t="s">
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>95</v>
+      <c r="A72" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>192</v>
+      <c r="A74" t="s">
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>89</v>
+      <c r="A79" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>108</v>
-      </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="B87" t="s">
-        <v>4</v>
+      <c r="A87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>205</v>
+      <c r="B89" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>117</v>
-      </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
-        <v>27</v>
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>106</v>
-      </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
       <c r="B98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>81</v>
-      </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>123</v>
+      <c r="A107" t="s">
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>99</v>
+      <c r="A108" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
       <c r="B110" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>207</v>
-      </c>
-      <c r="B111" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>LastOfAkiha</t>
   </si>
   <si>
-    <t>AroniaChips</t>
-  </si>
-  <si>
     <t>kortazang</t>
   </si>
   <si>
@@ -40,18 +37,12 @@
     <t>MnR-DongDong2</t>
   </si>
   <si>
-    <t>Neckeserr</t>
-  </si>
-  <si>
     <t>Azuremoon</t>
   </si>
   <si>
     <t>Samoyed</t>
   </si>
   <si>
-    <t>HyoWonDaddy</t>
-  </si>
-  <si>
     <t>CatMayor</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>kimboram</t>
   </si>
   <si>
-    <t>ps4-throwNpull</t>
-  </si>
-  <si>
     <t>isamix</t>
   </si>
   <si>
@@ -224,19 +212,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>아로니아</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>장테</t>
     </r>
   </si>
@@ -341,19 +316,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>효원이아빠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>캣메이어</t>
     </r>
   </si>
@@ -692,20 +654,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>던지</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>마사</t>
     </r>
   </si>
@@ -1160,10 +1108,6 @@
     <t>KaKaoTalk</t>
   </si>
   <si>
-    <t>limleedo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>SQUILLA</t>
   </si>
   <si>
@@ -1171,10 +1115,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>캐미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>킥밤</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1286,6 +1226,20 @@
   <si>
     <t>키스</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>노드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hand_of_Nod</t>
+  </si>
+  <si>
+    <t>오블맘</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>oblmom</t>
   </si>
 </sst>
 </file>
@@ -2237,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2250,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2258,591 +2212,591 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>74</v>
+      <c r="A10" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>63</v>
+      <c r="A39" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>136</v>
+      <c r="A40" t="s">
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>85</v>
+      <c r="A45" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>160</v>
+      <c r="A46" t="s">
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>80</v>
+      <c r="A47" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>185</v>
+      <c r="A66" t="s">
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>72</v>
+      <c r="A70" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>92</v>
+      <c r="A71" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
+      <c r="A72" t="s">
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>187</v>
+      <c r="A73" t="s">
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -2850,249 +2804,228 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>73</v>
+      <c r="A77" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>86</v>
+      <c r="A78" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>189</v>
+      <c r="A80" t="s">
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>4</v>
+      <c r="A85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>200</v>
+      <c r="B87" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>133</v>
+      <c r="B93" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>71</v>
-      </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>104</v>
+      <c r="A102" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>78</v>
+      <c r="A103" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>90</v>
+      </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="B109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>202</v>
-      </c>
-      <c r="B110" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -136,9 +136,6 @@
     <t>ALT_KEY</t>
   </si>
   <si>
-    <t>MCjintai_go</t>
-  </si>
-  <si>
     <t>Sinsquare</t>
   </si>
   <si>
@@ -685,22 +682,6 @@
   </si>
   <si>
     <r>
-      <t>MC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿠마</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1085,14 +1066,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>진준화</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0ovwwvo0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>부랑카</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1240,6 +1213,23 @@
   </si>
   <si>
     <t>oblmom</t>
+  </si>
+  <si>
+    <t>LSBSBLSB</t>
+  </si>
+  <si>
+    <t>에레스비</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gghnnh67</t>
+  </si>
+  <si>
+    <t>KJ록키</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>YunduUdonta</t>
   </si>
 </sst>
 </file>
@@ -2191,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2204,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2212,15 +2202,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2228,7 +2218,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2236,55 +2226,55 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2292,15 +2282,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2308,15 +2298,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2324,55 +2314,55 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2380,7 +2370,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2388,23 +2378,23 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2412,39 +2402,39 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -2452,39 +2442,39 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
         <v>114</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2492,15 +2482,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -2508,15 +2498,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2524,7 +2514,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2532,7 +2522,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -2540,15 +2530,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -2556,476 +2546,481 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>74</v>
+      <c r="A46" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>102</v>
+      <c r="A49" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>109</v>
+      <c r="A52" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
-      </c>
-    </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>59</v>
+      <c r="A56" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>85</v>
+      <c r="A59" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>60</v>
+      <c r="A62" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>82</v>
+      <c r="A66" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>95</v>
+      <c r="A72" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>77</v>
-      </c>
       <c r="B82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>191</v>
+      <c r="B85" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
+        <v>129</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>106</v>
+      <c r="A89" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
-        <v>166</v>
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>69</v>
-      </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" t="s">
+    <row r="103" spans="1:2">
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>193</v>
-      </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1066,14 +1066,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>부랑카</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lovlotus</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>카톡</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1230,6 +1222,20 @@
   </si>
   <si>
     <t>YunduUdonta</t>
+  </si>
+  <si>
+    <t>골든망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GOLDENMANGGO</t>
+  </si>
+  <si>
+    <t>아하!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ohhoho</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2258,18 +2264,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2282,10 +2288,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2338,18 +2344,18 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2378,10 +2384,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2402,114 +2408,114 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>165</v>
+      <c r="A29" t="s">
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>88</v>
+      <c r="A31" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>190</v>
+      <c r="A33" t="s">
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>108</v>
+      <c r="A34" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>112</v>
+      <c r="A35" t="s">
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>91</v>
+      <c r="A36" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>184</v>
+      <c r="A37" t="s">
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>61</v>
+      <c r="A38" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>127</v>
+      <c r="A39" t="s">
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>80</v>
+      <c r="A40" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2554,10 +2560,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2573,15 +2579,15 @@
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2714,10 +2720,10 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2762,7 +2768,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
@@ -2818,10 +2824,10 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2838,189 +2844,197 @@
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>76</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B89" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>104</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="B92" t="s">
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>71</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" t="s">
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>89</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="B107" t="s">
+    <row r="108" spans="1:2">
+      <c r="B108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" t="s">
-        <v>188</v>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1236,6 +1236,13 @@
   </si>
   <si>
     <t>Ohhoho</t>
+  </si>
+  <si>
+    <t>효원이아빠</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HyoWonDaddy</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2751,289 +2758,297 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>76</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="B89" t="s">
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B90" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>104</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" t="s">
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B98" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>71</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="B104" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>89</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="B108" t="s">
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>187</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>186</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1243,6 +1243,13 @@
   </si>
   <si>
     <t>HyoWonDaddy</t>
+  </si>
+  <si>
+    <t>갑니PR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GubniPR</t>
   </si>
 </sst>
 </file>
@@ -2194,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2239,816 +2246,824 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>84</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>101</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="B81" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>96</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="B90" t="s">
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B91" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>104</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>71</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="B105" t="s">
+    <row r="106" spans="1:2">
+      <c r="B106" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B106" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>89</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" t="s">
+    <row r="110" spans="1:2">
+      <c r="B110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>187</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>186</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1250,6 +1250,13 @@
   </si>
   <si>
     <t>GubniPR</t>
+  </si>
+  <si>
+    <t>콩티렉스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>kongtrex</t>
   </si>
 </sst>
 </file>
@@ -2201,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2726,344 +2733,352 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>101</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>85</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="B82" t="s">
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>96</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>104</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="B97" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="B99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>71</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="B106" t="s">
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>89</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="B110" t="s">
+    <row r="111" spans="1:2">
+      <c r="B111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>187</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>186</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -133,9 +133,6 @@
     <t>hayasen</t>
   </si>
   <si>
-    <t>ALT_KEY</t>
-  </si>
-  <si>
     <t>Sinsquare</t>
   </si>
   <si>
@@ -677,19 +674,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>알트키</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>신스퀘어</t>
     </r>
   </si>
@@ -1007,13 +991,6 @@
     <t>Xiller</t>
   </si>
   <si>
-    <t>빈방</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>emptyroom</t>
-  </si>
-  <si>
     <t>앜하밭하</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1035,9 +1012,6 @@
     <t>Zero_ten</t>
   </si>
   <si>
-    <t>3World</t>
-  </si>
-  <si>
     <t>뉴비식스</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1200,13 +1174,6 @@
     <t>Hand_of_Nod</t>
   </si>
   <si>
-    <t>오블맘</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>oblmom</t>
-  </si>
-  <si>
     <t>LSBSBLSB</t>
   </si>
   <si>
@@ -1221,42 +1188,40 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>골든망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GOLDENMANGGO</t>
+  </si>
+  <si>
+    <t>효원이아빠</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HyoWonDaddy</t>
+  </si>
+  <si>
+    <t>갑니PR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GubniPR</t>
+  </si>
+  <si>
+    <t>콩티렉스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>kongtrex</t>
+  </si>
+  <si>
+    <t>욘두</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>YunduUdonta</t>
-  </si>
-  <si>
-    <t>골든망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GOLDENMANGGO</t>
-  </si>
-  <si>
-    <t>아하!</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ohhoho</t>
-  </si>
-  <si>
-    <t>효원이아빠</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HyoWonDaddy</t>
-  </si>
-  <si>
-    <t>갑니PR</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GubniPR</t>
-  </si>
-  <si>
-    <t>콩티렉스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>kongtrex</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2208,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2221,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2229,15 +2194,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2245,7 +2210,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2253,63 +2218,63 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2317,15 +2282,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2333,15 +2298,15 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2349,55 +2314,55 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2405,7 +2370,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2413,23 +2378,23 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -2437,15 +2402,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>165</v>
+      <c r="A29" t="s">
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -2453,633 +2418,599 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>88</v>
+      <c r="A31" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>188</v>
+      <c r="A33" t="s">
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>108</v>
+      <c r="A34" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>112</v>
+      <c r="A35" t="s">
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>91</v>
+      <c r="A36" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>182</v>
+      <c r="A37" t="s">
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>61</v>
+      <c r="A38" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>127</v>
+      <c r="A39" t="s">
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>205</v>
+      <c r="A41" t="s">
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>90</v>
+      <c r="A42" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>78</v>
+      <c r="A45" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>151</v>
+      <c r="A46" t="s">
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>196</v>
+      <c r="A50" t="s">
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>100</v>
+      <c r="A51" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>161</v>
+      <c r="A53" t="s">
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>69</v>
+      <c r="A55" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
+      <c r="A58" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>163</v>
+      <c r="A59" t="s">
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>84</v>
+      <c r="A61" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>113</v>
+      <c r="A62" t="s">
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>59</v>
+      <c r="A64" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>116</v>
+      <c r="A67" t="s">
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>170</v>
+      <c r="A68" t="s">
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>93</v>
+      <c r="A70" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>85</v>
+      <c r="A73" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>126</v>
+      <c r="A74" t="s">
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>172</v>
+      <c r="A75" t="s">
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>106</v>
+      <c r="A78" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>66</v>
+      <c r="A79" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>109</v>
+      <c r="A81" t="s">
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
+      <c r="A87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B94" t="s">
-        <v>200</v>
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>98</v>
-      </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>65</v>
+      <c r="A104" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>95</v>
+      <c r="A105" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>182</v>
+      </c>
       <c r="B107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>89</v>
-      </c>
-      <c r="B110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -967,14 +967,6 @@
   </si>
   <si>
     <t>Thrall_77</t>
-  </si>
-  <si>
-    <t>고양이파</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>llllllll</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>귀욤</t>
@@ -2173,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2194,7 +2186,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2218,10 +2210,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2234,783 +2226,775 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>135</v>
+      <c r="A8" t="s">
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>97</v>
+      <c r="A9" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>189</v>
+      <c r="A11" t="s">
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>66</v>
+      <c r="A12" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>185</v>
+      <c r="A13" t="s">
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>85</v>
+      <c r="A17" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>173</v>
+      <c r="A21" t="s">
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>76</v>
+      <c r="A24" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>164</v>
+      <c r="A25" t="s">
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>86</v>
+      <c r="A27" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>160</v>
+      <c r="A28" t="s">
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>87</v>
+      <c r="A30" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>183</v>
+      <c r="A32" t="s">
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>106</v>
+      <c r="A33" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>110</v>
+      <c r="A34" t="s">
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>90</v>
+      <c r="A35" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>177</v>
+      <c r="A36" t="s">
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>60</v>
+      <c r="A37" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>125</v>
+      <c r="A38" t="s">
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>71</v>
+      <c r="A41" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>116</v>
+      <c r="A42" t="s">
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>77</v>
+      <c r="A43" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>192</v>
+      <c r="A45" t="s">
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>72</v>
+      <c r="A46" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>130</v>
+      <c r="A47" t="s">
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>204</v>
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>74</v>
+      <c r="A50" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>156</v>
+      <c r="A51" t="s">
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>73</v>
+      <c r="A54" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>136</v>
+      <c r="A55" t="s">
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>57</v>
+      <c r="A56" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>119</v>
+      <c r="A58" t="s">
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>83</v>
+      <c r="A59" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>149</v>
+      <c r="A61" t="s">
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>58</v>
+      <c r="A62" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>165</v>
+      <c r="A66" t="s">
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>99</v>
+      <c r="A69" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>197</v>
+      <c r="A70" t="s">
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>84</v>
+      <c r="A71" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>167</v>
+      <c r="A73" t="s">
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>78</v>
+      <c r="A77" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>94</v>
+      <c r="A81" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>75</v>
-      </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>51</v>
+      <c r="A86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>194</v>
+      <c r="A91" t="s">
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>102</v>
-      </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
-        <v>23</v>
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>122</v>
+      <c r="B94" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>70</v>
-      </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>108</v>
+      <c r="A105" t="s">
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -919,10 +919,6 @@
     <t>Hanna_KR</t>
   </si>
   <si>
-    <t>지옥불반도</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>스린이</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1099,10 +1095,6 @@
   </si>
   <si>
     <t>GuardJung</t>
-  </si>
-  <si>
-    <t>JIOKBULBANDO_PS4</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>FourDollar</t>
@@ -2165,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2186,7 +2178,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2210,26 +2202,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2242,18 +2234,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2266,10 +2258,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2301,7 +2293,7 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2314,26 +2306,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
         <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
         <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2362,10 +2354,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2386,10 +2378,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2397,7 +2389,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2410,18 +2402,18 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
         <v>128</v>
-      </c>
-      <c r="B30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2450,10 +2442,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
         <v>175</v>
-      </c>
-      <c r="B35" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2514,18 +2506,18 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2538,10 +2530,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2554,10 +2546,10 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2570,10 +2562,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
         <v>154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2602,10 +2594,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
         <v>136</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2618,10 +2610,10 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2650,7 +2642,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
         <v>45</v>
@@ -2666,18 +2658,18 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
         <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2690,10 +2682,10 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
         <v>163</v>
-      </c>
-      <c r="B65" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2722,10 +2714,10 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2746,10 +2738,10 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2794,10 +2786,10 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2815,15 +2807,15 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2846,155 +2838,147 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>192</v>
+      <c r="A90" t="s">
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>102</v>
-      </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="B92" t="s">
-        <v>23</v>
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>122</v>
+      <c r="B93" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>82</v>
+      </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>70</v>
-      </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>108</v>
+      <c r="A104" t="s">
+        <v>88</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1065,147 +1065,161 @@
     <t>dhschenk</t>
   </si>
   <si>
+    <t>notpsycho</t>
+  </si>
+  <si>
+    <t>머쓸빠워</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pekoshin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>맥가츄</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>McKachu</t>
+  </si>
+  <si>
+    <t>쌍환타</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5Highnoon</t>
+  </si>
+  <si>
+    <t>GuardJung</t>
+  </si>
+  <si>
+    <t>FourDollar</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>달라</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>스린이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ryurisa</t>
+  </si>
+  <si>
+    <t>도미</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ImDomi</t>
+  </si>
+  <si>
+    <t>kissmylip</t>
+  </si>
+  <si>
+    <t>키스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>노드</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hand_of_Nod</t>
+  </si>
+  <si>
+    <t>LSBSBLSB</t>
+  </si>
+  <si>
+    <t>에레스비</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gghnnh67</t>
+  </si>
+  <si>
+    <t>KJ록키</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>골든망고</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GOLDENMANGGO</t>
+  </si>
+  <si>
+    <t>효원이아빠</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HyoWonDaddy</t>
+  </si>
+  <si>
+    <t>갑니PR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GubniPR</t>
+  </si>
+  <si>
+    <t>콩티렉스</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>kongtrex</t>
+  </si>
+  <si>
+    <t>욘두</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>YunduUdonta</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>라쟌</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Razahn</t>
+  </si>
+  <si>
+    <t>빈토</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>헐랭이손</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>notpsycho</t>
-  </si>
-  <si>
-    <t>머쓸빠워</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>pekoshin</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>맥가츄</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>McKachu</t>
-  </si>
-  <si>
-    <t>쌍환타</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>5Highnoon</t>
-  </si>
-  <si>
-    <t>GuardJung</t>
-  </si>
-  <si>
-    <t>FourDollar</t>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>달라</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>스린이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ryurisa</t>
-  </si>
-  <si>
-    <t>도미</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ImDomi</t>
-  </si>
-  <si>
-    <t>kissmylip</t>
-  </si>
-  <si>
-    <t>키스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>노드</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Hand_of_Nod</t>
-  </si>
-  <si>
-    <t>LSBSBLSB</t>
-  </si>
-  <si>
-    <t>에레스비</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>gghnnh67</t>
-  </si>
-  <si>
-    <t>KJ록키</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>골든망고</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GOLDENMANGGO</t>
-  </si>
-  <si>
-    <t>효원이아빠</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HyoWonDaddy</t>
-  </si>
-  <si>
-    <t>갑니PR</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GubniPR</t>
-  </si>
-  <si>
-    <t>콩티렉스</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>kongtrex</t>
-  </si>
-  <si>
-    <t>욘두</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>YunduUdonta</t>
-    <phoneticPr fontId="18"/>
+    <t>realvocalist</t>
   </si>
 </sst>
 </file>
@@ -2157,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2202,10 +2216,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
         <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2234,42 +2248,42 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>185</v>
+      <c r="A10" t="s">
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>66</v>
+      <c r="A11" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>181</v>
+      <c r="A12" t="s">
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>61</v>
+      <c r="A13" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2314,18 +2328,18 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
         <v>172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2378,607 +2392,628 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
         <v>179</v>
       </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
         <v>174</v>
       </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>83</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B62" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>99</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" t="s">
-        <v>194</v>
-      </c>
-    </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>84</v>
+      <c r="A70" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>94</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" t="s">
         <v>191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B86" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>93</v>
-      </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>70</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" t="s">
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>88</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>177</v>
+      </c>
+      <c r="B108" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -193,19 +193,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>시테</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>장테</t>
     </r>
   </si>
@@ -1220,6 +1207,13 @@
   </si>
   <si>
     <t>realvocalist</t>
+  </si>
+  <si>
+    <t>SFV_Binto</t>
+  </si>
+  <si>
+    <t>시테</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2173,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2183,8 +2177,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>56</v>
+      <c r="A1" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2192,7 +2186,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2200,7 +2194,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2216,31 +2210,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
         <v>194</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -2248,15 +2242,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2264,15 +2258,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
         <v>180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2280,15 +2274,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
         <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -2296,7 +2290,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2304,47 +2298,47 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
         <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
         <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
         <v>171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -2352,7 +2346,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2360,7 +2354,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2368,15 +2362,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -2384,7 +2378,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2392,31 +2386,31 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -2424,23 +2418,23 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
         <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
         <v>178</v>
-      </c>
-      <c r="B32" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -2448,15 +2442,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2464,15 +2458,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
         <v>173</v>
-      </c>
-      <c r="B36" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -2480,15 +2474,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
         <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2496,7 +2490,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2504,7 +2498,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -2512,15 +2506,15 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2528,23 +2522,23 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
         <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -2552,15 +2546,15 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -2568,15 +2562,15 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -2584,15 +2578,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -2600,7 +2594,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -2608,7 +2602,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -2616,15 +2610,15 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
         <v>135</v>
-      </c>
-      <c r="B55" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2632,23 +2626,23 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -2656,15 +2650,15 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
@@ -2672,7 +2666,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2680,39 +2674,39 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
         <v>196</v>
-      </c>
-      <c r="B63" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
         <v>130</v>
-      </c>
-      <c r="B64" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
         <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
         <v>162</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -2720,7 +2714,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -2728,7 +2722,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>47</v>
@@ -2736,23 +2730,23 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
@@ -2760,23 +2754,23 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2784,7 +2778,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>53</v>
@@ -2792,7 +2786,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2800,7 +2794,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -2808,7 +2802,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
@@ -2816,10 +2810,10 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2829,7 +2823,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>41</v>
@@ -2837,20 +2831,20 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" t="s">
         <v>190</v>
-      </c>
-      <c r="B83" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -2868,36 +2862,36 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
         <v>158</v>
-      </c>
-      <c r="B88" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -2910,15 +2904,15 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2928,7 +2922,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
@@ -2936,7 +2930,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -2944,12 +2938,12 @@
     </row>
     <row r="99" spans="1:2">
       <c r="B99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
@@ -2957,7 +2951,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -2965,7 +2959,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
         <v>39</v>
@@ -2973,7 +2967,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -2981,28 +2975,28 @@
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s">
         <v>138</v>
-      </c>
-      <c r="B105" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
         <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
@@ -3010,10 +3004,10 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -1214,6 +1214,13 @@
   <si>
     <t>시테</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>조커</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FaceJoker</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2650,363 +2657,371 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>83</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="B81" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>74</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="B89" t="s">
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" t="s">
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>81</v>
-      </c>
-      <c r="B97" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>66</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="B99" t="s">
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>69</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="B104" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>176</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>175</v>
       </c>
     </row>

--- a/post/user_list.xlsx
+++ b/post/user_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>LastOfAkiha</t>
   </si>
@@ -258,19 +258,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>사복</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>블루문</t>
     </r>
   </si>
@@ -992,9 +979,6 @@
   </si>
   <si>
     <t>SalaryLupin</t>
-  </si>
-  <si>
-    <t>Sybox85</t>
   </si>
   <si>
     <t>우키조아</t>
@@ -2172,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2185,7 +2169,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2193,7 +2177,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2201,7 +2185,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2209,7 +2193,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2217,31 +2201,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -2249,15 +2233,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2265,10 +2249,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2281,15 +2265,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -2297,7 +2281,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2305,47 +2289,47 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
         <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -2361,7 +2345,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2369,15 +2353,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -2385,7 +2369,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2393,636 +2377,628 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>86</v>
+      <c r="A30" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>177</v>
+      <c r="A32" t="s">
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>105</v>
+      <c r="A33" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>89</v>
+      <c r="A35" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>172</v>
+      <c r="A36" t="s">
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>59</v>
+      <c r="A37" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>124</v>
+      <c r="A38" t="s">
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>70</v>
+      <c r="A41" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>115</v>
+      <c r="A42" t="s">
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>76</v>
+      <c r="A43" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>186</v>
+      <c r="A45" t="s">
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>71</v>
+      <c r="A46" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>128</v>
+      <c r="A47" t="s">
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>198</v>
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>73</v>
+      <c r="A50" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>152</v>
+      <c r="A51" t="s">
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>72</v>
+      <c r="A54" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>134</v>
+      <c r="A55" t="s">
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
+      <c r="A56" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>118</v>
+      <c r="A58" t="s">
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>82</v>
+      <c r="A59" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>145</v>
+      <c r="A62" t="s">
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>57</v>
+      <c r="A63" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>161</v>
+      <c r="A67" t="s">
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>98</v>
+      <c r="A70" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>191</v>
+      <c r="A72" t="s">
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>83</v>
+      <c r="A73" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>163</v>
+      <c r="A75" t="s">
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>77</v>
+      <c r="A79" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>93</v>
+      <c r="A83" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>74</v>
-      </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>188</v>
+      <c r="A92" t="s">
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="B93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" t="s">
-        <v>23</v>
+      <c r="B94" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>121</v>
+      <c r="B95" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>66</v>
-      </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>94</v>
+      </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>69</v>
-      </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
+      <c r="A107" t="s">
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
